--- a/ResultadoEleicoesDistritos/LISBOA_ARRUDA DOS VINHOS.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_ARRUDA DOS VINHOS.xlsx
@@ -600,22 +600,22 @@
         <v>135</v>
       </c>
       <c r="I2" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J2" t="n">
-        <v>1446</v>
+        <v>1471</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -624,37 +624,37 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="T2" t="n">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
-        <v>2288</v>
+        <v>2220</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
